--- a/Unterlagen/3_Umsetzungsplanung/Kostenplan/Kostenplan_G6.xlsx
+++ b/Unterlagen/3_Umsetzungsplanung/Kostenplan/Kostenplan_G6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franjofranjic/Desktop/Modul_306/Unterlagen/3_Umsetzungsplanung/Kostenplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A27B39-BEC2-674D-90CA-A1EC8AFF39AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CB06E-1E43-2845-B2CA-999BA628BF7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{A737B63F-CCC5-C947-8CE3-8EB776B0F241}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{A737B63F-CCC5-C947-8CE3-8EB776B0F241}"/>
   </bookViews>
   <sheets>
     <sheet name="Kostenplan Prototyp" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Budgetposition</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Server installation/ konfiguration</t>
+  </si>
+  <si>
+    <t>1300 Stunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Stunden </t>
   </si>
 </sst>
 </file>
@@ -130,17 +136,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -150,14 +165,16 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,80 +490,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6323D00F-9FF6-BA40-B36B-224BCA2137F2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7500</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>7500</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6000</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -557,13 +584,13 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -574,13 +601,13 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -591,38 +618,21 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E8" s="2">
         <v>13500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -630,116 +640,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6640E63-B497-AD4A-827D-6449C4CD02C6}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>65000</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1300</v>
-      </c>
-      <c r="C3" s="4">
-        <v>50</v>
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>7500</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4">
-        <v>800</v>
-      </c>
-      <c r="C4" s="4">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
-        <v>6000</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>64000</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>200</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3200</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10000</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10000</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -750,41 +770,24 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>142200</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>142200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
